--- a/test/fixtures/cartaobpi_nao_extractados.xlsx
+++ b/test/fixtures/cartaobpi_nao_extractados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Movimentos" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Desconto</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Transacção</t>
+    <t xml:space="preserve">Data Transação</t>
   </si>
   <si>
     <t xml:space="preserve">Data Movimento</t>
@@ -106,7 +106,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY;@"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YYYY;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
@@ -358,20 +358,20 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="52.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.0969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.75510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="10.3469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="52.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="10.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -473,7 +473,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -711,7 +711,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;CDate: &amp;D
 Page &amp;P</oddHeader>
